--- a/public/template/agents_formation.xlsx
+++ b/public/template/agents_formation.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="429">
   <si>
     <t>Code</t>
   </si>
@@ -36,6 +36,9 @@
   </si>
   <si>
     <t>Total_statut</t>
+  </si>
+  <si>
+    <t>null</t>
   </si>
   <si>
     <t>Sexe</t>
@@ -1640,7 +1643,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1678,6 +1681,14 @@
       </c>
       <c r="B4" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>2008</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1702,7 +1713,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1715,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1723,7 +1734,7 @@
         <v>701</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1731,7 +1742,7 @@
         <v>702</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1739,7 +1750,15 @@
         <v>703</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>2010</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1777,7 +1796,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1785,7 +1804,7 @@
         <v>987</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1793,7 +1812,7 @@
         <v>988</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1801,7 +1820,7 @@
         <v>989</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1809,7 +1828,7 @@
         <v>990</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1817,7 +1836,7 @@
         <v>991</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1825,7 +1844,7 @@
         <v>992</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1833,7 +1852,7 @@
         <v>993</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1841,7 +1860,7 @@
         <v>994</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1849,7 +1868,7 @@
         <v>995</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1857,7 +1876,7 @@
         <v>996</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1865,7 +1884,7 @@
         <v>997</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1873,7 +1892,7 @@
         <v>998</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1881,7 +1900,7 @@
         <v>999</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1889,7 +1908,7 @@
         <v>1000</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1897,7 +1916,7 @@
         <v>1001</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1905,7 +1924,7 @@
         <v>1002</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1913,7 +1932,7 @@
         <v>1003</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1921,7 +1940,7 @@
         <v>1004</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1929,7 +1948,7 @@
         <v>1005</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1937,7 +1956,7 @@
         <v>1006</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1945,7 +1964,7 @@
         <v>1007</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1953,7 +1972,7 @@
         <v>1008</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1961,7 +1980,7 @@
         <v>1009</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1969,7 +1988,7 @@
         <v>1010</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1977,7 +1996,7 @@
         <v>1011</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1985,7 +2004,7 @@
         <v>1012</v>
       </c>
       <c r="B27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1993,7 +2012,7 @@
         <v>1013</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -2001,7 +2020,7 @@
         <v>1014</v>
       </c>
       <c r="B29" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -2009,7 +2028,7 @@
         <v>1015</v>
       </c>
       <c r="B30" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -2017,7 +2036,7 @@
         <v>1016</v>
       </c>
       <c r="B31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -2025,7 +2044,7 @@
         <v>1017</v>
       </c>
       <c r="B32" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -2033,7 +2052,7 @@
         <v>1018</v>
       </c>
       <c r="B33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -2041,7 +2060,7 @@
         <v>1019</v>
       </c>
       <c r="B34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -2049,7 +2068,7 @@
         <v>1020</v>
       </c>
       <c r="B35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -2057,7 +2076,7 @@
         <v>1021</v>
       </c>
       <c r="B36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -2065,7 +2084,7 @@
         <v>1022</v>
       </c>
       <c r="B37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -2073,7 +2092,7 @@
         <v>1023</v>
       </c>
       <c r="B38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -2081,7 +2100,7 @@
         <v>1024</v>
       </c>
       <c r="B39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -2089,7 +2108,7 @@
         <v>1025</v>
       </c>
       <c r="B40" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -2097,7 +2116,7 @@
         <v>1026</v>
       </c>
       <c r="B41" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -2105,7 +2124,7 @@
         <v>1027</v>
       </c>
       <c r="B42" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -2113,7 +2132,7 @@
         <v>1028</v>
       </c>
       <c r="B43" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -2121,7 +2140,7 @@
         <v>1029</v>
       </c>
       <c r="B44" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -2129,7 +2148,7 @@
         <v>1030</v>
       </c>
       <c r="B45" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -2137,7 +2156,7 @@
         <v>1031</v>
       </c>
       <c r="B46" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -2145,7 +2164,7 @@
         <v>1032</v>
       </c>
       <c r="B47" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -2153,7 +2172,7 @@
         <v>1033</v>
       </c>
       <c r="B48" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -2161,7 +2180,7 @@
         <v>1034</v>
       </c>
       <c r="B49" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -2169,7 +2188,7 @@
         <v>1035</v>
       </c>
       <c r="B50" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -2177,7 +2196,7 @@
         <v>1036</v>
       </c>
       <c r="B51" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -2185,7 +2204,7 @@
         <v>1037</v>
       </c>
       <c r="B52" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -2193,7 +2212,7 @@
         <v>1038</v>
       </c>
       <c r="B53" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -2201,7 +2220,7 @@
         <v>1039</v>
       </c>
       <c r="B54" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -2209,7 +2228,7 @@
         <v>1040</v>
       </c>
       <c r="B55" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -2217,7 +2236,7 @@
         <v>1041</v>
       </c>
       <c r="B56" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -2225,7 +2244,7 @@
         <v>1042</v>
       </c>
       <c r="B57" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -2233,7 +2252,7 @@
         <v>1043</v>
       </c>
       <c r="B58" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -2241,7 +2260,7 @@
         <v>1044</v>
       </c>
       <c r="B59" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -2249,7 +2268,7 @@
         <v>1045</v>
       </c>
       <c r="B60" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -2257,7 +2276,7 @@
         <v>1046</v>
       </c>
       <c r="B61" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -2265,7 +2284,7 @@
         <v>1047</v>
       </c>
       <c r="B62" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -2273,7 +2292,7 @@
         <v>1048</v>
       </c>
       <c r="B63" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -2281,7 +2300,7 @@
         <v>1049</v>
       </c>
       <c r="B64" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -2289,7 +2308,7 @@
         <v>1050</v>
       </c>
       <c r="B65" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -2297,7 +2316,7 @@
         <v>1051</v>
       </c>
       <c r="B66" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -2305,7 +2324,7 @@
         <v>1052</v>
       </c>
       <c r="B67" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -2313,7 +2332,7 @@
         <v>1053</v>
       </c>
       <c r="B68" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -2321,7 +2340,7 @@
         <v>1054</v>
       </c>
       <c r="B69" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -2329,7 +2348,7 @@
         <v>1055</v>
       </c>
       <c r="B70" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -2337,7 +2356,7 @@
         <v>1056</v>
       </c>
       <c r="B71" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -2345,7 +2364,7 @@
         <v>1057</v>
       </c>
       <c r="B72" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -2353,7 +2372,7 @@
         <v>1058</v>
       </c>
       <c r="B73" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -2361,7 +2380,7 @@
         <v>1059</v>
       </c>
       <c r="B74" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -2369,7 +2388,7 @@
         <v>1060</v>
       </c>
       <c r="B75" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -2377,7 +2396,7 @@
         <v>1061</v>
       </c>
       <c r="B76" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -2385,7 +2404,7 @@
         <v>1062</v>
       </c>
       <c r="B77" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -2393,7 +2412,7 @@
         <v>1063</v>
       </c>
       <c r="B78" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -2401,7 +2420,7 @@
         <v>1064</v>
       </c>
       <c r="B79" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -2409,7 +2428,7 @@
         <v>1065</v>
       </c>
       <c r="B80" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -2417,7 +2436,7 @@
         <v>1066</v>
       </c>
       <c r="B81" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -2425,7 +2444,7 @@
         <v>1067</v>
       </c>
       <c r="B82" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -2433,7 +2452,7 @@
         <v>1068</v>
       </c>
       <c r="B83" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -2441,7 +2460,7 @@
         <v>1069</v>
       </c>
       <c r="B84" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -2449,7 +2468,7 @@
         <v>1070</v>
       </c>
       <c r="B85" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -2457,7 +2476,7 @@
         <v>1071</v>
       </c>
       <c r="B86" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -2465,7 +2484,7 @@
         <v>1072</v>
       </c>
       <c r="B87" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -2473,7 +2492,7 @@
         <v>1073</v>
       </c>
       <c r="B88" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -2481,7 +2500,7 @@
         <v>1074</v>
       </c>
       <c r="B89" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -2489,7 +2508,7 @@
         <v>1075</v>
       </c>
       <c r="B90" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -2497,7 +2516,7 @@
         <v>1076</v>
       </c>
       <c r="B91" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -2505,7 +2524,7 @@
         <v>1077</v>
       </c>
       <c r="B92" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -2513,7 +2532,7 @@
         <v>1078</v>
       </c>
       <c r="B93" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -2521,7 +2540,7 @@
         <v>1079</v>
       </c>
       <c r="B94" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -2529,7 +2548,7 @@
         <v>1080</v>
       </c>
       <c r="B95" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -2537,7 +2556,7 @@
         <v>1081</v>
       </c>
       <c r="B96" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -2545,7 +2564,7 @@
         <v>1082</v>
       </c>
       <c r="B97" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -2553,7 +2572,7 @@
         <v>1083</v>
       </c>
       <c r="B98" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -2561,7 +2580,7 @@
         <v>1084</v>
       </c>
       <c r="B99" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -2569,7 +2588,7 @@
         <v>1085</v>
       </c>
       <c r="B100" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -2577,7 +2596,7 @@
         <v>1086</v>
       </c>
       <c r="B101" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -2585,7 +2604,7 @@
         <v>1087</v>
       </c>
       <c r="B102" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -2593,7 +2612,7 @@
         <v>1088</v>
       </c>
       <c r="B103" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -2601,7 +2620,7 @@
         <v>1089</v>
       </c>
       <c r="B104" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -2609,7 +2628,7 @@
         <v>1090</v>
       </c>
       <c r="B105" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -2617,7 +2636,7 @@
         <v>1091</v>
       </c>
       <c r="B106" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -2625,7 +2644,7 @@
         <v>1092</v>
       </c>
       <c r="B107" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -2633,7 +2652,7 @@
         <v>1093</v>
       </c>
       <c r="B108" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -2641,7 +2660,7 @@
         <v>1094</v>
       </c>
       <c r="B109" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -2649,7 +2668,7 @@
         <v>1095</v>
       </c>
       <c r="B110" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -2657,7 +2676,7 @@
         <v>1096</v>
       </c>
       <c r="B111" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -2665,7 +2684,7 @@
         <v>1097</v>
       </c>
       <c r="B112" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -2673,7 +2692,7 @@
         <v>1098</v>
       </c>
       <c r="B113" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -2681,7 +2700,7 @@
         <v>1099</v>
       </c>
       <c r="B114" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -2689,7 +2708,7 @@
         <v>1100</v>
       </c>
       <c r="B115" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -2697,7 +2716,7 @@
         <v>1101</v>
       </c>
       <c r="B116" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -2705,7 +2724,7 @@
         <v>1102</v>
       </c>
       <c r="B117" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -2713,7 +2732,7 @@
         <v>1103</v>
       </c>
       <c r="B118" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -2721,7 +2740,7 @@
         <v>1104</v>
       </c>
       <c r="B119" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -2729,7 +2748,7 @@
         <v>1105</v>
       </c>
       <c r="B120" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2737,7 +2756,7 @@
         <v>1106</v>
       </c>
       <c r="B121" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2745,7 +2764,7 @@
         <v>1107</v>
       </c>
       <c r="B122" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2753,7 +2772,7 @@
         <v>1108</v>
       </c>
       <c r="B123" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2761,7 +2780,7 @@
         <v>1109</v>
       </c>
       <c r="B124" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2769,7 +2788,7 @@
         <v>1110</v>
       </c>
       <c r="B125" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -2777,7 +2796,7 @@
         <v>1111</v>
       </c>
       <c r="B126" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -2785,7 +2804,7 @@
         <v>1112</v>
       </c>
       <c r="B127" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2793,7 +2812,7 @@
         <v>1113</v>
       </c>
       <c r="B128" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -2801,7 +2820,7 @@
         <v>1114</v>
       </c>
       <c r="B129" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2809,7 +2828,7 @@
         <v>1115</v>
       </c>
       <c r="B130" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2817,7 +2836,7 @@
         <v>1116</v>
       </c>
       <c r="B131" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -2825,7 +2844,7 @@
         <v>1117</v>
       </c>
       <c r="B132" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -2833,7 +2852,7 @@
         <v>1118</v>
       </c>
       <c r="B133" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -2841,7 +2860,7 @@
         <v>1119</v>
       </c>
       <c r="B134" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -2849,7 +2868,7 @@
         <v>1120</v>
       </c>
       <c r="B135" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -2857,7 +2876,7 @@
         <v>1121</v>
       </c>
       <c r="B136" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2865,7 +2884,7 @@
         <v>1122</v>
       </c>
       <c r="B137" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2873,7 +2892,7 @@
         <v>1123</v>
       </c>
       <c r="B138" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2881,7 +2900,7 @@
         <v>1124</v>
       </c>
       <c r="B139" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2889,7 +2908,7 @@
         <v>1125</v>
       </c>
       <c r="B140" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2897,7 +2916,7 @@
         <v>1126</v>
       </c>
       <c r="B141" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2905,7 +2924,7 @@
         <v>1127</v>
       </c>
       <c r="B142" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -2913,7 +2932,7 @@
         <v>1128</v>
       </c>
       <c r="B143" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2921,7 +2940,7 @@
         <v>1129</v>
       </c>
       <c r="B144" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2929,7 +2948,7 @@
         <v>1130</v>
       </c>
       <c r="B145" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2937,7 +2956,7 @@
         <v>1131</v>
       </c>
       <c r="B146" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -2945,7 +2964,7 @@
         <v>1132</v>
       </c>
       <c r="B147" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2953,7 +2972,7 @@
         <v>1133</v>
       </c>
       <c r="B148" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2961,7 +2980,7 @@
         <v>1134</v>
       </c>
       <c r="B149" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -2969,7 +2988,7 @@
         <v>1135</v>
       </c>
       <c r="B150" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -2977,7 +2996,7 @@
         <v>1136</v>
       </c>
       <c r="B151" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -2985,7 +3004,7 @@
         <v>1137</v>
       </c>
       <c r="B152" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -2993,7 +3012,7 @@
         <v>1138</v>
       </c>
       <c r="B153" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -3001,7 +3020,7 @@
         <v>1139</v>
       </c>
       <c r="B154" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -3009,7 +3028,7 @@
         <v>1140</v>
       </c>
       <c r="B155" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -3017,7 +3036,7 @@
         <v>1141</v>
       </c>
       <c r="B156" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -3025,7 +3044,7 @@
         <v>1142</v>
       </c>
       <c r="B157" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -3033,7 +3052,7 @@
         <v>1143</v>
       </c>
       <c r="B158" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -3041,7 +3060,7 @@
         <v>1144</v>
       </c>
       <c r="B159" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -3049,7 +3068,7 @@
         <v>1145</v>
       </c>
       <c r="B160" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -3057,7 +3076,7 @@
         <v>1146</v>
       </c>
       <c r="B161" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -3065,7 +3084,7 @@
         <v>1147</v>
       </c>
       <c r="B162" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -3073,7 +3092,7 @@
         <v>1148</v>
       </c>
       <c r="B163" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -3081,7 +3100,7 @@
         <v>1149</v>
       </c>
       <c r="B164" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -3089,7 +3108,7 @@
         <v>1150</v>
       </c>
       <c r="B165" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -3097,7 +3116,7 @@
         <v>1151</v>
       </c>
       <c r="B166" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -3105,7 +3124,7 @@
         <v>1152</v>
       </c>
       <c r="B167" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -3113,7 +3132,7 @@
         <v>1153</v>
       </c>
       <c r="B168" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -3121,7 +3140,7 @@
         <v>1154</v>
       </c>
       <c r="B169" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -3129,7 +3148,7 @@
         <v>1155</v>
       </c>
       <c r="B170" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -3137,7 +3156,7 @@
         <v>1156</v>
       </c>
       <c r="B171" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -3145,7 +3164,7 @@
         <v>1157</v>
       </c>
       <c r="B172" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -3153,7 +3172,7 @@
         <v>1158</v>
       </c>
       <c r="B173" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -3161,7 +3180,7 @@
         <v>1159</v>
       </c>
       <c r="B174" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -3169,7 +3188,7 @@
         <v>1160</v>
       </c>
       <c r="B175" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -3177,7 +3196,7 @@
         <v>1161</v>
       </c>
       <c r="B176" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -3185,7 +3204,7 @@
         <v>1162</v>
       </c>
       <c r="B177" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -3193,7 +3212,7 @@
         <v>1163</v>
       </c>
       <c r="B178" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -3201,7 +3220,7 @@
         <v>1164</v>
       </c>
       <c r="B179" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -3209,7 +3228,7 @@
         <v>1165</v>
       </c>
       <c r="B180" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -3217,7 +3236,7 @@
         <v>1166</v>
       </c>
       <c r="B181" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -3225,7 +3244,7 @@
         <v>1167</v>
       </c>
       <c r="B182" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -3233,7 +3252,7 @@
         <v>1168</v>
       </c>
       <c r="B183" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -3241,7 +3260,7 @@
         <v>1169</v>
       </c>
       <c r="B184" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -3249,7 +3268,7 @@
         <v>1170</v>
       </c>
       <c r="B185" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -3257,7 +3276,7 @@
         <v>1171</v>
       </c>
       <c r="B186" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -3265,7 +3284,7 @@
         <v>1172</v>
       </c>
       <c r="B187" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -3273,7 +3292,7 @@
         <v>1173</v>
       </c>
       <c r="B188" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -3281,7 +3300,7 @@
         <v>1174</v>
       </c>
       <c r="B189" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -3289,7 +3308,7 @@
         <v>1175</v>
       </c>
       <c r="B190" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -3297,7 +3316,7 @@
         <v>1176</v>
       </c>
       <c r="B191" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -3305,7 +3324,7 @@
         <v>1177</v>
       </c>
       <c r="B192" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -3313,7 +3332,7 @@
         <v>1178</v>
       </c>
       <c r="B193" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -3321,7 +3340,7 @@
         <v>1179</v>
       </c>
       <c r="B194" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -3329,7 +3348,7 @@
         <v>1180</v>
       </c>
       <c r="B195" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -3337,7 +3356,7 @@
         <v>1181</v>
       </c>
       <c r="B196" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -3345,7 +3364,7 @@
         <v>1182</v>
       </c>
       <c r="B197" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -3353,7 +3372,7 @@
         <v>1183</v>
       </c>
       <c r="B198" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -3361,7 +3380,7 @@
         <v>1184</v>
       </c>
       <c r="B199" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -3369,7 +3388,7 @@
         <v>1185</v>
       </c>
       <c r="B200" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -3377,7 +3396,7 @@
         <v>1186</v>
       </c>
       <c r="B201" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -3385,7 +3404,7 @@
         <v>1187</v>
       </c>
       <c r="B202" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -3393,7 +3412,7 @@
         <v>1188</v>
       </c>
       <c r="B203" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -3401,7 +3420,7 @@
         <v>1189</v>
       </c>
       <c r="B204" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -3409,7 +3428,7 @@
         <v>1190</v>
       </c>
       <c r="B205" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -3417,7 +3436,7 @@
         <v>1191</v>
       </c>
       <c r="B206" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -3425,7 +3444,7 @@
         <v>1192</v>
       </c>
       <c r="B207" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -3433,7 +3452,7 @@
         <v>1193</v>
       </c>
       <c r="B208" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -3441,7 +3460,7 @@
         <v>1194</v>
       </c>
       <c r="B209" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -3449,7 +3468,7 @@
         <v>1195</v>
       </c>
       <c r="B210" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -3457,7 +3476,7 @@
         <v>1196</v>
       </c>
       <c r="B211" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -3465,7 +3484,7 @@
         <v>1197</v>
       </c>
       <c r="B212" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -3473,7 +3492,7 @@
         <v>1198</v>
       </c>
       <c r="B213" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -3481,7 +3500,7 @@
         <v>1199</v>
       </c>
       <c r="B214" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -3489,7 +3508,7 @@
         <v>1200</v>
       </c>
       <c r="B215" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -3497,7 +3516,7 @@
         <v>1201</v>
       </c>
       <c r="B216" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -3505,7 +3524,7 @@
         <v>1202</v>
       </c>
       <c r="B217" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -3513,7 +3532,7 @@
         <v>1203</v>
       </c>
       <c r="B218" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -3521,7 +3540,7 @@
         <v>1204</v>
       </c>
       <c r="B219" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -3529,7 +3548,7 @@
         <v>1205</v>
       </c>
       <c r="B220" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -3537,7 +3556,7 @@
         <v>1962</v>
       </c>
       <c r="B221" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -3562,7 +3581,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B161"/>
+  <dimension ref="A1:B162"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -3575,7 +3594,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -3583,7 +3602,7 @@
         <v>1206</v>
       </c>
       <c r="B2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3591,7 +3610,7 @@
         <v>1207</v>
       </c>
       <c r="B3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3599,7 +3618,7 @@
         <v>1208</v>
       </c>
       <c r="B4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3607,7 +3626,7 @@
         <v>1209</v>
       </c>
       <c r="B5" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3615,7 +3634,7 @@
         <v>1210</v>
       </c>
       <c r="B6" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3623,7 +3642,7 @@
         <v>1211</v>
       </c>
       <c r="B7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3631,7 +3650,7 @@
         <v>1212</v>
       </c>
       <c r="B8" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3639,7 +3658,7 @@
         <v>1213</v>
       </c>
       <c r="B9" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3647,7 +3666,7 @@
         <v>1214</v>
       </c>
       <c r="B10" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3655,7 +3674,7 @@
         <v>1215</v>
       </c>
       <c r="B11" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3663,7 +3682,7 @@
         <v>1216</v>
       </c>
       <c r="B12" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3671,7 +3690,7 @@
         <v>1217</v>
       </c>
       <c r="B13" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3679,7 +3698,7 @@
         <v>1218</v>
       </c>
       <c r="B14" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3687,7 +3706,7 @@
         <v>1219</v>
       </c>
       <c r="B15" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3695,7 +3714,7 @@
         <v>1220</v>
       </c>
       <c r="B16" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3703,7 +3722,7 @@
         <v>1221</v>
       </c>
       <c r="B17" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3711,7 +3730,7 @@
         <v>1222</v>
       </c>
       <c r="B18" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -3719,7 +3738,7 @@
         <v>1223</v>
       </c>
       <c r="B19" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -3727,7 +3746,7 @@
         <v>1224</v>
       </c>
       <c r="B20" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3735,7 +3754,7 @@
         <v>1225</v>
       </c>
       <c r="B21" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -3743,7 +3762,7 @@
         <v>1226</v>
       </c>
       <c r="B22" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -3751,7 +3770,7 @@
         <v>1227</v>
       </c>
       <c r="B23" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -3759,7 +3778,7 @@
         <v>1228</v>
       </c>
       <c r="B24" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -3767,7 +3786,7 @@
         <v>1229</v>
       </c>
       <c r="B25" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -3775,7 +3794,7 @@
         <v>1230</v>
       </c>
       <c r="B26" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -3783,7 +3802,7 @@
         <v>1231</v>
       </c>
       <c r="B27" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -3791,7 +3810,7 @@
         <v>1232</v>
       </c>
       <c r="B28" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -3799,7 +3818,7 @@
         <v>1233</v>
       </c>
       <c r="B29" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -3807,7 +3826,7 @@
         <v>1234</v>
       </c>
       <c r="B30" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -3815,7 +3834,7 @@
         <v>1235</v>
       </c>
       <c r="B31" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -3823,7 +3842,7 @@
         <v>1236</v>
       </c>
       <c r="B32" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -3831,7 +3850,7 @@
         <v>1237</v>
       </c>
       <c r="B33" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -3839,7 +3858,7 @@
         <v>1238</v>
       </c>
       <c r="B34" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -3847,7 +3866,7 @@
         <v>1239</v>
       </c>
       <c r="B35" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -3855,7 +3874,7 @@
         <v>1240</v>
       </c>
       <c r="B36" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -3863,7 +3882,7 @@
         <v>1241</v>
       </c>
       <c r="B37" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -3871,7 +3890,7 @@
         <v>1242</v>
       </c>
       <c r="B38" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -3879,7 +3898,7 @@
         <v>1243</v>
       </c>
       <c r="B39" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -3887,7 +3906,7 @@
         <v>1244</v>
       </c>
       <c r="B40" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -3895,7 +3914,7 @@
         <v>1245</v>
       </c>
       <c r="B41" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -3903,7 +3922,7 @@
         <v>1246</v>
       </c>
       <c r="B42" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -3911,7 +3930,7 @@
         <v>1247</v>
       </c>
       <c r="B43" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -3919,7 +3938,7 @@
         <v>1248</v>
       </c>
       <c r="B44" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -3927,7 +3946,7 @@
         <v>1249</v>
       </c>
       <c r="B45" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -3935,7 +3954,7 @@
         <v>1250</v>
       </c>
       <c r="B46" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -3943,7 +3962,7 @@
         <v>1251</v>
       </c>
       <c r="B47" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -3951,7 +3970,7 @@
         <v>1252</v>
       </c>
       <c r="B48" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -3959,7 +3978,7 @@
         <v>1253</v>
       </c>
       <c r="B49" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -3967,7 +3986,7 @@
         <v>1254</v>
       </c>
       <c r="B50" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -3975,7 +3994,7 @@
         <v>1255</v>
       </c>
       <c r="B51" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -3983,7 +4002,7 @@
         <v>1256</v>
       </c>
       <c r="B52" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -3991,7 +4010,7 @@
         <v>1257</v>
       </c>
       <c r="B53" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -3999,7 +4018,7 @@
         <v>1258</v>
       </c>
       <c r="B54" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -4007,7 +4026,7 @@
         <v>1259</v>
       </c>
       <c r="B55" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -4015,7 +4034,7 @@
         <v>1260</v>
       </c>
       <c r="B56" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -4023,7 +4042,7 @@
         <v>1261</v>
       </c>
       <c r="B57" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -4031,7 +4050,7 @@
         <v>1262</v>
       </c>
       <c r="B58" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -4039,7 +4058,7 @@
         <v>1263</v>
       </c>
       <c r="B59" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -4047,7 +4066,7 @@
         <v>1264</v>
       </c>
       <c r="B60" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -4055,7 +4074,7 @@
         <v>1265</v>
       </c>
       <c r="B61" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -4063,7 +4082,7 @@
         <v>1266</v>
       </c>
       <c r="B62" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -4071,7 +4090,7 @@
         <v>1267</v>
       </c>
       <c r="B63" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -4079,7 +4098,7 @@
         <v>1268</v>
       </c>
       <c r="B64" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -4087,7 +4106,7 @@
         <v>1269</v>
       </c>
       <c r="B65" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -4095,7 +4114,7 @@
         <v>1270</v>
       </c>
       <c r="B66" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -4103,7 +4122,7 @@
         <v>1271</v>
       </c>
       <c r="B67" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -4111,7 +4130,7 @@
         <v>1272</v>
       </c>
       <c r="B68" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -4119,7 +4138,7 @@
         <v>1273</v>
       </c>
       <c r="B69" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -4127,7 +4146,7 @@
         <v>1274</v>
       </c>
       <c r="B70" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -4135,7 +4154,7 @@
         <v>1275</v>
       </c>
       <c r="B71" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -4143,7 +4162,7 @@
         <v>1276</v>
       </c>
       <c r="B72" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -4151,7 +4170,7 @@
         <v>1277</v>
       </c>
       <c r="B73" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -4159,7 +4178,7 @@
         <v>1278</v>
       </c>
       <c r="B74" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -4167,7 +4186,7 @@
         <v>1279</v>
       </c>
       <c r="B75" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -4175,7 +4194,7 @@
         <v>1280</v>
       </c>
       <c r="B76" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -4183,7 +4202,7 @@
         <v>1281</v>
       </c>
       <c r="B77" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -4191,7 +4210,7 @@
         <v>1282</v>
       </c>
       <c r="B78" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -4199,7 +4218,7 @@
         <v>1283</v>
       </c>
       <c r="B79" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -4207,7 +4226,7 @@
         <v>1284</v>
       </c>
       <c r="B80" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -4215,7 +4234,7 @@
         <v>1285</v>
       </c>
       <c r="B81" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -4223,7 +4242,7 @@
         <v>1286</v>
       </c>
       <c r="B82" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -4231,7 +4250,7 @@
         <v>1287</v>
       </c>
       <c r="B83" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -4239,7 +4258,7 @@
         <v>1288</v>
       </c>
       <c r="B84" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -4247,7 +4266,7 @@
         <v>1289</v>
       </c>
       <c r="B85" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -4255,7 +4274,7 @@
         <v>1290</v>
       </c>
       <c r="B86" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -4263,7 +4282,7 @@
         <v>1291</v>
       </c>
       <c r="B87" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -4271,7 +4290,7 @@
         <v>1292</v>
       </c>
       <c r="B88" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -4279,7 +4298,7 @@
         <v>1293</v>
       </c>
       <c r="B89" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -4287,7 +4306,7 @@
         <v>1294</v>
       </c>
       <c r="B90" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -4295,7 +4314,7 @@
         <v>1295</v>
       </c>
       <c r="B91" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -4303,7 +4322,7 @@
         <v>1296</v>
       </c>
       <c r="B92" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -4311,7 +4330,7 @@
         <v>1297</v>
       </c>
       <c r="B93" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -4319,7 +4338,7 @@
         <v>1298</v>
       </c>
       <c r="B94" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -4327,7 +4346,7 @@
         <v>1299</v>
       </c>
       <c r="B95" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -4335,7 +4354,7 @@
         <v>1300</v>
       </c>
       <c r="B96" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -4343,7 +4362,7 @@
         <v>1301</v>
       </c>
       <c r="B97" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -4351,7 +4370,7 @@
         <v>1302</v>
       </c>
       <c r="B98" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -4359,7 +4378,7 @@
         <v>1303</v>
       </c>
       <c r="B99" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -4367,7 +4386,7 @@
         <v>1304</v>
       </c>
       <c r="B100" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -4375,7 +4394,7 @@
         <v>1305</v>
       </c>
       <c r="B101" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -4383,7 +4402,7 @@
         <v>1306</v>
       </c>
       <c r="B102" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -4391,7 +4410,7 @@
         <v>1307</v>
       </c>
       <c r="B103" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -4399,7 +4418,7 @@
         <v>1308</v>
       </c>
       <c r="B104" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -4407,7 +4426,7 @@
         <v>1309</v>
       </c>
       <c r="B105" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -4415,7 +4434,7 @@
         <v>1310</v>
       </c>
       <c r="B106" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -4423,7 +4442,7 @@
         <v>1311</v>
       </c>
       <c r="B107" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -4431,7 +4450,7 @@
         <v>1312</v>
       </c>
       <c r="B108" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -4439,7 +4458,7 @@
         <v>1313</v>
       </c>
       <c r="B109" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -4447,7 +4466,7 @@
         <v>1314</v>
       </c>
       <c r="B110" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -4455,7 +4474,7 @@
         <v>1315</v>
       </c>
       <c r="B111" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -4463,7 +4482,7 @@
         <v>1316</v>
       </c>
       <c r="B112" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -4471,7 +4490,7 @@
         <v>1317</v>
       </c>
       <c r="B113" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -4479,7 +4498,7 @@
         <v>1318</v>
       </c>
       <c r="B114" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -4487,7 +4506,7 @@
         <v>1319</v>
       </c>
       <c r="B115" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -4495,7 +4514,7 @@
         <v>1320</v>
       </c>
       <c r="B116" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -4503,7 +4522,7 @@
         <v>1321</v>
       </c>
       <c r="B117" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -4511,7 +4530,7 @@
         <v>1322</v>
       </c>
       <c r="B118" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -4519,7 +4538,7 @@
         <v>1323</v>
       </c>
       <c r="B119" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -4527,7 +4546,7 @@
         <v>1324</v>
       </c>
       <c r="B120" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -4535,7 +4554,7 @@
         <v>1325</v>
       </c>
       <c r="B121" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -4543,7 +4562,7 @@
         <v>1326</v>
       </c>
       <c r="B122" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -4551,7 +4570,7 @@
         <v>1327</v>
       </c>
       <c r="B123" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -4559,7 +4578,7 @@
         <v>1328</v>
       </c>
       <c r="B124" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -4567,7 +4586,7 @@
         <v>1329</v>
       </c>
       <c r="B125" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -4575,7 +4594,7 @@
         <v>1330</v>
       </c>
       <c r="B126" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -4583,7 +4602,7 @@
         <v>1331</v>
       </c>
       <c r="B127" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -4591,7 +4610,7 @@
         <v>1332</v>
       </c>
       <c r="B128" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -4599,7 +4618,7 @@
         <v>1333</v>
       </c>
       <c r="B129" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -4607,7 +4626,7 @@
         <v>1334</v>
       </c>
       <c r="B130" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -4615,7 +4634,7 @@
         <v>1335</v>
       </c>
       <c r="B131" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -4623,7 +4642,7 @@
         <v>1336</v>
       </c>
       <c r="B132" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -4631,7 +4650,7 @@
         <v>1337</v>
       </c>
       <c r="B133" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -4639,7 +4658,7 @@
         <v>1338</v>
       </c>
       <c r="B134" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -4647,7 +4666,7 @@
         <v>1339</v>
       </c>
       <c r="B135" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -4655,7 +4674,7 @@
         <v>1340</v>
       </c>
       <c r="B136" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -4663,7 +4682,7 @@
         <v>1341</v>
       </c>
       <c r="B137" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -4671,7 +4690,7 @@
         <v>1342</v>
       </c>
       <c r="B138" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -4679,7 +4698,7 @@
         <v>1343</v>
       </c>
       <c r="B139" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -4687,7 +4706,7 @@
         <v>1344</v>
       </c>
       <c r="B140" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -4695,7 +4714,7 @@
         <v>1345</v>
       </c>
       <c r="B141" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -4703,7 +4722,7 @@
         <v>1346</v>
       </c>
       <c r="B142" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -4711,7 +4730,7 @@
         <v>1347</v>
       </c>
       <c r="B143" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -4719,7 +4738,7 @@
         <v>1348</v>
       </c>
       <c r="B144" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -4727,7 +4746,7 @@
         <v>1349</v>
       </c>
       <c r="B145" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -4735,7 +4754,7 @@
         <v>1350</v>
       </c>
       <c r="B146" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -4743,7 +4762,7 @@
         <v>1351</v>
       </c>
       <c r="B147" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -4751,7 +4770,7 @@
         <v>1352</v>
       </c>
       <c r="B148" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -4759,7 +4778,7 @@
         <v>1353</v>
       </c>
       <c r="B149" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -4767,7 +4786,7 @@
         <v>1354</v>
       </c>
       <c r="B150" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -4775,7 +4794,7 @@
         <v>1355</v>
       </c>
       <c r="B151" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -4783,7 +4802,7 @@
         <v>1356</v>
       </c>
       <c r="B152" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -4791,7 +4810,7 @@
         <v>1357</v>
       </c>
       <c r="B153" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -4799,7 +4818,7 @@
         <v>1358</v>
       </c>
       <c r="B154" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -4807,7 +4826,7 @@
         <v>1359</v>
       </c>
       <c r="B155" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -4815,7 +4834,7 @@
         <v>1360</v>
       </c>
       <c r="B156" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -4823,7 +4842,7 @@
         <v>1361</v>
       </c>
       <c r="B157" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -4831,7 +4850,7 @@
         <v>1362</v>
       </c>
       <c r="B158" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -4839,7 +4858,7 @@
         <v>1363</v>
       </c>
       <c r="B159" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -4847,7 +4866,7 @@
         <v>1364</v>
       </c>
       <c r="B160" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -4855,7 +4874,15 @@
         <v>1365</v>
       </c>
       <c r="B161" t="s">
-        <v>390</v>
+        <v>391</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162">
+        <v>2011</v>
+      </c>
+      <c r="B162" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -4880,7 +4907,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -4893,7 +4920,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -4901,7 +4928,7 @@
         <v>1407</v>
       </c>
       <c r="B2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4909,7 +4936,7 @@
         <v>1408</v>
       </c>
       <c r="B3" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4917,7 +4944,7 @@
         <v>1409</v>
       </c>
       <c r="B4" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4925,7 +4952,7 @@
         <v>1410</v>
       </c>
       <c r="B5" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4933,7 +4960,7 @@
         <v>1411</v>
       </c>
       <c r="B6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4941,7 +4968,7 @@
         <v>1412</v>
       </c>
       <c r="B7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4949,7 +4976,15 @@
         <v>1413</v>
       </c>
       <c r="B8" t="s">
-        <v>398</v>
+        <v>399</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>2007</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -4984,31 +5019,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="F1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="I1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -5016,25 +5051,25 @@
         <v>123456</v>
       </c>
       <c r="B2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C2" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
         <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I2">
         <v>456</v>
@@ -5045,25 +5080,25 @@
         <v>456789</v>
       </c>
       <c r="B3" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C3">
         <v>456</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I3">
         <v>456</v>
@@ -5074,28 +5109,28 @@
         <v>123789</v>
       </c>
       <c r="B4" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C4" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -5103,28 +5138,28 @@
         <v>789456</v>
       </c>
       <c r="B5" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C5" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E5" t="s">
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H5" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I5" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -5132,28 +5167,28 @@
         <v>789123</v>
       </c>
       <c r="B6" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C6" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E6" t="s">
         <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I6" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -5161,28 +5196,28 @@
         <v>456132</v>
       </c>
       <c r="B7" t="s">
+        <v>418</v>
+      </c>
+      <c r="C7" t="s">
         <v>417</v>
       </c>
-      <c r="C7" t="s">
-        <v>416</v>
-      </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E7" t="s">
         <v>3</v>
       </c>
       <c r="F7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="G7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -5190,25 +5225,25 @@
         <v>748594</v>
       </c>
       <c r="B8" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C8" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E8" t="s">
         <v>2</v>
       </c>
       <c r="F8" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I8">
         <v>456</v>
@@ -5219,25 +5254,25 @@
         <v>326154</v>
       </c>
       <c r="B9" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C9">
         <v>456</v>
       </c>
       <c r="D9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E9" t="s">
         <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="G9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H9" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I9">
         <v>456</v>
@@ -5248,25 +5283,25 @@
         <v>74816194</v>
       </c>
       <c r="B10" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C10" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E10" t="s">
         <v>2</v>
       </c>
       <c r="F10" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H10" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I10">
         <v>456</v>
@@ -5277,25 +5312,25 @@
         <v>32615489154</v>
       </c>
       <c r="B11" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C11">
         <v>456</v>
       </c>
       <c r="D11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E11" t="s">
         <v>2</v>
       </c>
       <c r="F11" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="G11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H11" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I11">
         <v>456</v>
@@ -5306,25 +5341,25 @@
         <v>222222</v>
       </c>
       <c r="B12" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C12" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E12" t="s">
         <v>2</v>
       </c>
       <c r="F12" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H12" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I12">
         <v>456</v>
@@ -5335,25 +5370,25 @@
         <v>111111</v>
       </c>
       <c r="B13" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C13">
         <v>456</v>
       </c>
       <c r="D13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E13" t="s">
         <v>2</v>
       </c>
       <c r="F13" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="G13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H13" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I13">
         <v>456</v>
@@ -5364,25 +5399,25 @@
         <v>999999999999</v>
       </c>
       <c r="B14" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C14" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E14" t="s">
         <v>2</v>
       </c>
       <c r="F14" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H14" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I14">
         <v>456</v>
@@ -5393,25 +5428,25 @@
         <v>888888888</v>
       </c>
       <c r="B15" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C15" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E15" t="s">
         <v>2</v>
       </c>
       <c r="F15" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H15" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I15">
         <v>456</v>
@@ -5422,25 +5457,25 @@
         <v>777777777</v>
       </c>
       <c r="B16" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C16" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E16" t="s">
         <v>2</v>
       </c>
       <c r="F16" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H16" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I16">
         <v>456</v>
@@ -5451,25 +5486,25 @@
         <v>161616161616</v>
       </c>
       <c r="B17" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C17" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E17" t="s">
         <v>2</v>
       </c>
       <c r="F17" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H17" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I17">
         <v>456</v>
@@ -5480,25 +5515,25 @@
         <v>95959595995</v>
       </c>
       <c r="B18" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C18" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E18" t="s">
         <v>2</v>
       </c>
       <c r="F18" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H18" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I18">
         <v>456</v>
@@ -5509,25 +5544,25 @@
         <v>333333333</v>
       </c>
       <c r="B19" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C19" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E19" t="s">
         <v>2</v>
       </c>
       <c r="F19" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H19" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I19">
         <v>45454</v>
@@ -5538,25 +5573,25 @@
         <v>789456123456789</v>
       </c>
       <c r="B20" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C20" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E20" t="s">
         <v>2</v>
       </c>
       <c r="F20" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H20" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I20">
         <v>12</v>
@@ -5594,46 +5629,46 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="G1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="I1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="J1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="K1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="N1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
   </sheetData>

--- a/public/template/agents_formation.xlsx
+++ b/public/template/agents_formation.xlsx
@@ -1783,7 +1783,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B221"/>
+  <dimension ref="A1:B222"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -3557,6 +3557,14 @@
       </c>
       <c r="B221" t="s">
         <v>230</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222">
+        <v>2009</v>
+      </c>
+      <c r="B222" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/public/template/agents_formation.xlsx
+++ b/public/template/agents_formation.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="414">
   <si>
     <t>Code</t>
   </si>
@@ -1245,51 +1245,6 @@
   </si>
   <si>
     <t>Plan de formation</t>
-  </si>
-  <si>
-    <t>ODJO Sidik</t>
-  </si>
-  <si>
-    <t>Licence</t>
-  </si>
-  <si>
-    <t>SANSOU Pail</t>
-  </si>
-  <si>
-    <t>ALIBOTO Gilbert</t>
-  </si>
-  <si>
-    <t>LIL</t>
-  </si>
-  <si>
-    <t>LLl</t>
-  </si>
-  <si>
-    <t>LAMBERT Gil</t>
-  </si>
-  <si>
-    <t>ll</t>
-  </si>
-  <si>
-    <t>GONZALES Anita</t>
-  </si>
-  <si>
-    <t>ml</t>
-  </si>
-  <si>
-    <t>SASSOU Tania</t>
-  </si>
-  <si>
-    <t>gfgfgfg</t>
-  </si>
-  <si>
-    <t>fgfgfg</t>
-  </si>
-  <si>
-    <t>rrrrrrrrrrrrrrrrrrr</t>
-  </si>
-  <si>
-    <t>tttttttttttttttttttttt</t>
   </si>
   <si>
     <t>SexeCode</t>
@@ -5017,7 +4972,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -5052,557 +5007,6 @@
       </c>
       <c r="I1" t="s">
         <v>407</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2">
-        <v>123456</v>
-      </c>
-      <c r="B2" t="s">
-        <v>408</v>
-      </c>
-      <c r="C2" t="s">
-        <v>409</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>393</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" t="s">
-        <v>232</v>
-      </c>
-      <c r="I2">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3">
-        <v>456789</v>
-      </c>
-      <c r="B3" t="s">
-        <v>410</v>
-      </c>
-      <c r="C3">
-        <v>456</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" t="s">
-        <v>394</v>
-      </c>
-      <c r="G3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" t="s">
-        <v>232</v>
-      </c>
-      <c r="I3">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4">
-        <v>123789</v>
-      </c>
-      <c r="B4" t="s">
-        <v>411</v>
-      </c>
-      <c r="C4" t="s">
-        <v>412</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" t="s">
-        <v>393</v>
-      </c>
-      <c r="G4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" t="s">
-        <v>232</v>
-      </c>
-      <c r="I4" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5">
-        <v>789456</v>
-      </c>
-      <c r="B5" t="s">
-        <v>414</v>
-      </c>
-      <c r="C5" t="s">
-        <v>415</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" t="s">
-        <v>393</v>
-      </c>
-      <c r="G5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" t="s">
-        <v>232</v>
-      </c>
-      <c r="I5" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6">
-        <v>789123</v>
-      </c>
-      <c r="B6" t="s">
-        <v>416</v>
-      </c>
-      <c r="C6" t="s">
-        <v>417</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" t="s">
-        <v>393</v>
-      </c>
-      <c r="G6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" t="s">
-        <v>232</v>
-      </c>
-      <c r="I6" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7">
-        <v>456132</v>
-      </c>
-      <c r="B7" t="s">
-        <v>418</v>
-      </c>
-      <c r="C7" t="s">
-        <v>417</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" t="s">
-        <v>394</v>
-      </c>
-      <c r="G7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" t="s">
-        <v>232</v>
-      </c>
-      <c r="I7" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8">
-        <v>748594</v>
-      </c>
-      <c r="B8" t="s">
-        <v>408</v>
-      </c>
-      <c r="C8" t="s">
-        <v>409</v>
-      </c>
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" t="s">
-        <v>393</v>
-      </c>
-      <c r="G8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" t="s">
-        <v>232</v>
-      </c>
-      <c r="I8">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9">
-        <v>326154</v>
-      </c>
-      <c r="B9" t="s">
-        <v>410</v>
-      </c>
-      <c r="C9">
-        <v>456</v>
-      </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" t="s">
-        <v>2</v>
-      </c>
-      <c r="F9" t="s">
-        <v>394</v>
-      </c>
-      <c r="G9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" t="s">
-        <v>232</v>
-      </c>
-      <c r="I9">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10">
-        <v>74816194</v>
-      </c>
-      <c r="B10" t="s">
-        <v>408</v>
-      </c>
-      <c r="C10" t="s">
-        <v>409</v>
-      </c>
-      <c r="D10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10" t="s">
-        <v>393</v>
-      </c>
-      <c r="G10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" t="s">
-        <v>232</v>
-      </c>
-      <c r="I10">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11">
-        <v>32615489154</v>
-      </c>
-      <c r="B11" t="s">
-        <v>410</v>
-      </c>
-      <c r="C11">
-        <v>456</v>
-      </c>
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" t="s">
-        <v>2</v>
-      </c>
-      <c r="F11" t="s">
-        <v>394</v>
-      </c>
-      <c r="G11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" t="s">
-        <v>232</v>
-      </c>
-      <c r="I11">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12">
-        <v>222222</v>
-      </c>
-      <c r="B12" t="s">
-        <v>408</v>
-      </c>
-      <c r="C12" t="s">
-        <v>409</v>
-      </c>
-      <c r="D12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" t="s">
-        <v>2</v>
-      </c>
-      <c r="F12" t="s">
-        <v>393</v>
-      </c>
-      <c r="G12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" t="s">
-        <v>232</v>
-      </c>
-      <c r="I12">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13">
-        <v>111111</v>
-      </c>
-      <c r="B13" t="s">
-        <v>410</v>
-      </c>
-      <c r="C13">
-        <v>456</v>
-      </c>
-      <c r="D13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" t="s">
-        <v>2</v>
-      </c>
-      <c r="F13" t="s">
-        <v>394</v>
-      </c>
-      <c r="G13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" t="s">
-        <v>232</v>
-      </c>
-      <c r="I13">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14">
-        <v>999999999999</v>
-      </c>
-      <c r="B14" t="s">
-        <v>408</v>
-      </c>
-      <c r="C14" t="s">
-        <v>409</v>
-      </c>
-      <c r="D14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" t="s">
-        <v>2</v>
-      </c>
-      <c r="F14" t="s">
-        <v>393</v>
-      </c>
-      <c r="G14" t="s">
-        <v>11</v>
-      </c>
-      <c r="H14" t="s">
-        <v>232</v>
-      </c>
-      <c r="I14">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15">
-        <v>888888888</v>
-      </c>
-      <c r="B15" t="s">
-        <v>408</v>
-      </c>
-      <c r="C15" t="s">
-        <v>409</v>
-      </c>
-      <c r="D15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" t="s">
-        <v>2</v>
-      </c>
-      <c r="F15" t="s">
-        <v>393</v>
-      </c>
-      <c r="G15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" t="s">
-        <v>232</v>
-      </c>
-      <c r="I15">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16">
-        <v>777777777</v>
-      </c>
-      <c r="B16" t="s">
-        <v>408</v>
-      </c>
-      <c r="C16" t="s">
-        <v>409</v>
-      </c>
-      <c r="D16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" t="s">
-        <v>2</v>
-      </c>
-      <c r="F16" t="s">
-        <v>393</v>
-      </c>
-      <c r="G16" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" t="s">
-        <v>232</v>
-      </c>
-      <c r="I16">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17">
-        <v>161616161616</v>
-      </c>
-      <c r="B17" t="s">
-        <v>408</v>
-      </c>
-      <c r="C17" t="s">
-        <v>409</v>
-      </c>
-      <c r="D17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" t="s">
-        <v>2</v>
-      </c>
-      <c r="F17" t="s">
-        <v>393</v>
-      </c>
-      <c r="G17" t="s">
-        <v>11</v>
-      </c>
-      <c r="H17" t="s">
-        <v>232</v>
-      </c>
-      <c r="I17">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18">
-        <v>95959595995</v>
-      </c>
-      <c r="B18" t="s">
-        <v>408</v>
-      </c>
-      <c r="C18" t="s">
-        <v>409</v>
-      </c>
-      <c r="D18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" t="s">
-        <v>2</v>
-      </c>
-      <c r="F18" t="s">
-        <v>393</v>
-      </c>
-      <c r="G18" t="s">
-        <v>11</v>
-      </c>
-      <c r="H18" t="s">
-        <v>232</v>
-      </c>
-      <c r="I18">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19">
-        <v>333333333</v>
-      </c>
-      <c r="B19" t="s">
-        <v>419</v>
-      </c>
-      <c r="C19" t="s">
-        <v>420</v>
-      </c>
-      <c r="D19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" t="s">
-        <v>2</v>
-      </c>
-      <c r="F19" t="s">
-        <v>393</v>
-      </c>
-      <c r="G19" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19" t="s">
-        <v>232</v>
-      </c>
-      <c r="I19">
-        <v>45454</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20">
-        <v>789456123456789</v>
-      </c>
-      <c r="B20" t="s">
-        <v>421</v>
-      </c>
-      <c r="C20" t="s">
-        <v>422</v>
-      </c>
-      <c r="D20" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" t="s">
-        <v>2</v>
-      </c>
-      <c r="F20" t="s">
-        <v>393</v>
-      </c>
-      <c r="G20" t="s">
-        <v>11</v>
-      </c>
-      <c r="H20" t="s">
-        <v>232</v>
-      </c>
-      <c r="I20">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -5646,37 +5050,37 @@
         <v>402</v>
       </c>
       <c r="D1" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="E1" t="s">
         <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="G1" t="s">
         <v>403</v>
       </c>
       <c r="H1" t="s">
-        <v>425</v>
+        <v>410</v>
       </c>
       <c r="I1" t="s">
         <v>404</v>
       </c>
       <c r="J1" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="K1" t="s">
         <v>405</v>
       </c>
       <c r="L1" t="s">
-        <v>427</v>
+        <v>412</v>
       </c>
       <c r="M1" t="s">
         <v>406</v>
       </c>
       <c r="N1" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
     </row>
   </sheetData>
